--- a/CupBop.xlsx
+++ b/CupBop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitData\studyData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\gitstudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,95 +265,309 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나쁘진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않은데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질척임</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오뚜기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와사비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>덮밥</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>★★★</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나쁘진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않은데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>좀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>많이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>질척임</t>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하나도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아까움</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와사비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마요는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SoSo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참치소스가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓰레기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>…</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,7 +575,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -437,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -465,6 +679,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,19 +967,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="59.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -782,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -800,7 +1017,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -818,7 +1035,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -829,24 +1046,32 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -856,7 +1081,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -866,7 +1091,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -876,7 +1101,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -886,7 +1111,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -896,7 +1121,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -906,7 +1131,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -916,7 +1141,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -926,7 +1151,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -936,7 +1161,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -946,7 +1171,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -956,7 +1181,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -966,7 +1191,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -976,7 +1201,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -986,7 +1211,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -996,7 +1221,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1006,7 +1231,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1016,7 +1241,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1026,7 +1251,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1036,7 +1261,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1046,7 +1271,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1056,7 +1281,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1066,7 +1291,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1076,7 +1301,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1086,7 +1311,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1094,7 +1319,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1102,7 +1327,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1110,7 +1335,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1118,7 +1343,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1126,7 +1351,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1134,7 +1359,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1142,7 +1367,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1150,7 +1375,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1158,7 +1383,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1166,7 +1391,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1174,7 +1399,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1182,7 +1407,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1190,7 +1415,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1198,7 +1423,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1206,7 +1431,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1214,7 +1439,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1222,7 +1447,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1230,7 +1455,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1238,7 +1463,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1246,7 +1471,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1254,7 +1479,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1262,7 +1487,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1270,7 +1495,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1278,7 +1503,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1286,7 +1511,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1294,7 +1519,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1302,7 +1527,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1310,7 +1535,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1318,7 +1543,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1326,7 +1551,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1334,7 +1559,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1342,7 +1567,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1350,7 +1575,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1358,7 +1583,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1366,7 +1591,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1374,7 +1599,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1382,7 +1607,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1390,7 +1615,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1398,7 +1623,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1406,7 +1631,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1414,7 +1639,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1422,7 +1647,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1430,7 +1655,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1438,7 +1663,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -1446,7 +1671,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -1454,7 +1679,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -1462,7 +1687,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -1470,7 +1695,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -1478,7 +1703,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
